--- a/打卡.xlsx
+++ b/打卡.xlsx
@@ -105,8 +105,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -140,9 +140,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,15 +154,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,11 +184,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,93 +231,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,12 +293,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,169 +389,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,17 +487,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,29 +511,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +558,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -570,17 +576,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,154 +604,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1078,9 +1072,9 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1093,259 +1087,311 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" ht="18.75" spans="1:17">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>43933</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>43934</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>43935</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>43936</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>43937</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>43938</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>43939</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>43940</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>43941</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>43942</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>43943</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>43944</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>43945</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="3">
         <v>43946</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="3">
         <v>43947</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>43948</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1353,41 +1399,47 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="E19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="C19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1395,22 +1447,34 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="C21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="C22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1424,45 +1488,63 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="D26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/打卡.xlsx
+++ b/打卡.xlsx
@@ -105,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -145,6 +145,104 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,15 +261,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,116 +278,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -307,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +525,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,32 +560,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,9 +590,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,133 +618,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,7 +1106,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/打卡.xlsx
+++ b/打卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>92班每日面试题打卡情况</t>
   </si>
@@ -106,8 +106,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -162,8 +162,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +179,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +200,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -192,11 +231,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,38 +278,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,44 +291,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -307,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +498,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,16 +526,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,47 +567,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +583,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -606,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,137 +618,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +768,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,17 +1109,17 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="13.775" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:18">
+    <row r="1" ht="20.25" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1141,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" ht="17.4" spans="1:21">
+    <row r="2" ht="18.75" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1203,13 +1206,13 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="3" ht="17.4" spans="1:9">
+    <row r="3" ht="18.75" spans="1:11">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <f>SUM(C3:U3)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -1226,14 +1229,20 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="17.4" spans="1:9">
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:11">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B27" si="0">SUM(C4:U4)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -1256,8 +1265,14 @@
       <c r="I4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" ht="17.4" spans="1:9">
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:9">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1271,13 +1286,13 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" ht="17.4" spans="1:9">
+    <row r="6" ht="18.75" spans="1:11">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1291,14 +1306,20 @@
         <v>1</v>
       </c>
       <c r="I6" s="6"/>
-    </row>
-    <row r="7" ht="17.4" spans="1:9">
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" spans="1:11">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1313,14 +1334,20 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-    </row>
-    <row r="8" ht="17.4" spans="1:9">
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" spans="1:11">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1334,14 +1361,20 @@
         <v>1</v>
       </c>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" ht="17.4" spans="1:9">
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" spans="1:11">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1364,14 +1397,20 @@
       <c r="I9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" ht="17.4" spans="1:9">
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:11">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1394,14 +1433,20 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="17.4" spans="1:9">
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1424,14 +1469,20 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" ht="17.4" spans="1:9">
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" spans="1:11">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1454,14 +1505,20 @@
       <c r="I12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" ht="17.4" spans="1:9">
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:11">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1484,8 +1541,14 @@
       <c r="I13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" ht="17.4" spans="1:4">
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1495,7 +1558,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" ht="17.4" spans="1:4">
+    <row r="15" ht="18.75" spans="1:4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1505,7 +1568,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" ht="17.4" spans="1:4">
+    <row r="16" ht="18.75" spans="1:4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +1578,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" ht="17.4" spans="1:4">
+    <row r="17" ht="18.75" spans="1:4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1525,7 +1588,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" ht="17.4" spans="1:4">
+    <row r="18" ht="18.75" spans="1:4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1535,13 +1598,13 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" ht="17.4" spans="1:9">
+    <row r="19" ht="18.75" spans="1:11">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="6"/>
       <c r="F19" s="5">
@@ -1556,8 +1619,14 @@
       <c r="I19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" ht="17.4" spans="1:4">
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="1:4">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1567,7 +1636,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" ht="17.4" spans="1:9">
+    <row r="21" ht="18.75" spans="1:11">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1582,14 +1651,16 @@
       <c r="I21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" ht="17.4" spans="1:9">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" ht="18.75" spans="1:11">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1603,17 +1674,26 @@
       <c r="I22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" ht="17.4" spans="1:2">
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" spans="1:10">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="17.4" spans="1:2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1622,13 +1702,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="17.4" spans="1:9">
+    <row r="25" ht="18.75" spans="1:11">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -1645,14 +1725,20 @@
       <c r="I25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" ht="17.4" spans="1:9">
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" spans="1:11">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -1669,14 +1755,20 @@
       <c r="I26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" ht="17.4" spans="1:9">
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" spans="1:11">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1691,6 +1783,12 @@
         <v>1</v>
       </c>
       <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
         <v>1</v>
       </c>
     </row>

--- a/打卡.xlsx
+++ b/打卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>92班每日面试题打卡情况</t>
   </si>
@@ -106,8 +106,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -149,6 +149,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -156,7 +163,114 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,89 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -260,37 +291,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -307,55 +307,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,127 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +498,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,6 +541,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -542,39 +581,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -584,17 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,145 +606,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,19 +1107,19 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.775" customWidth="1"/>
+    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:18">
+    <row r="1" ht="20.4" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" ht="18.75" spans="1:21">
+    <row r="2" ht="17.4" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:11">
+    <row r="3" ht="17.4" spans="1:11">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:11">
+    <row r="4" ht="17.4" spans="1:11">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:9">
+    <row r="5" ht="17.4" spans="1:9">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" ht="18.75" spans="1:11">
+    <row r="6" ht="17.4" spans="1:11">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="18.75" spans="1:11">
+    <row r="7" ht="17.4" spans="1:11">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:11">
+    <row r="8" ht="17.4" spans="1:11">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" spans="1:11">
+    <row r="9" ht="17.4" spans="1:11">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18.75" spans="1:11">
+    <row r="10" ht="17.4" spans="1:11">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="18.75" spans="1:11">
+    <row r="11" ht="17.4" spans="1:11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="18.75" spans="1:11">
+    <row r="12" ht="17.4" spans="1:11">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="18.75" spans="1:11">
+    <row r="13" ht="17.4" spans="1:11">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="18.75" spans="1:4">
+    <row r="14" ht="17.4" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" ht="18.75" spans="1:4">
+    <row r="15" ht="17.4" spans="1:4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" ht="18.75" spans="1:4">
+    <row r="16" ht="17.4" spans="1:4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" ht="18.75" spans="1:4">
+    <row r="17" ht="17.4" spans="1:4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" ht="18.75" spans="1:4">
+    <row r="18" ht="17.4" spans="1:4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" ht="18.75" spans="1:11">
+    <row r="19" ht="17.4" spans="1:11">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="18.75" spans="1:4">
+    <row r="20" ht="17.4" spans="1:4">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" ht="18.75" spans="1:11">
+    <row r="21" ht="17.4" spans="1:11">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" ht="18.75" spans="1:11">
+    <row r="22" ht="17.4" spans="1:11">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="18.75" spans="1:10">
+    <row r="23" ht="17.4" spans="1:10">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="18.75" spans="1:2">
+    <row r="24" ht="17.4" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="18.75" spans="1:11">
+    <row r="25" ht="17.4" spans="1:11">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="18.75" spans="1:11">
+    <row r="26" ht="17.4" spans="1:11">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="18.75" spans="1:11">
+    <row r="27" ht="17.4" spans="1:11">
       <c r="A27" t="s">
         <v>27</v>
       </c>

--- a/打卡.xlsx
+++ b/打卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>92班每日面试题打卡情况</t>
   </si>
@@ -162,8 +162,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,14 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -193,8 +237,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,89 +285,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -307,25 +307,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,157 +469,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +498,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,6 +538,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,67 +593,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,133 +618,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,19 +1107,19 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="13.775" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:18">
+    <row r="1" ht="20.25" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1141,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" ht="17.4" spans="1:21">
+    <row r="2" ht="18.75" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1206,13 +1206,13 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="3" ht="17.4" spans="1:11">
+    <row r="3" ht="18.75" spans="1:12">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <f>SUM(C3:U3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -1235,14 +1235,17 @@
       <c r="K3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="17.4" spans="1:11">
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:13">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B27" si="0">SUM(C4:U4)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -1271,8 +1274,14 @@
       <c r="K4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" ht="17.4" spans="1:9">
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:9">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1286,7 +1295,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" ht="17.4" spans="1:11">
+    <row r="6" ht="18.75" spans="1:11">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1313,13 +1322,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="17.4" spans="1:11">
+    <row r="7" ht="18.75" spans="1:12">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1340,14 +1349,17 @@
       <c r="K7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" ht="17.4" spans="1:11">
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" spans="1:12">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1367,14 +1379,17 @@
       <c r="K8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" ht="17.4" spans="1:11">
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" spans="1:13">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1403,14 +1418,20 @@
       <c r="K9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" ht="17.4" spans="1:11">
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:13">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1439,14 +1460,20 @@
       <c r="K10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="17.4" spans="1:11">
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:13">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1475,14 +1502,20 @@
       <c r="K11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" ht="17.4" spans="1:11">
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" spans="1:13">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1511,14 +1544,20 @@
       <c r="K12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" ht="17.4" spans="1:11">
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1547,8 +1586,14 @@
       <c r="K13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" ht="17.4" spans="1:4">
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1558,7 +1603,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" ht="17.4" spans="1:4">
+    <row r="15" ht="18.75" spans="1:4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1568,7 +1613,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" ht="17.4" spans="1:4">
+    <row r="16" ht="18.75" spans="1:4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1578,7 +1623,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" ht="17.4" spans="1:4">
+    <row r="17" ht="18.75" spans="1:4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1588,7 +1633,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" ht="17.4" spans="1:4">
+    <row r="18" ht="18.75" spans="1:4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1598,7 +1643,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" ht="17.4" spans="1:11">
+    <row r="19" ht="18.75" spans="1:11">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1626,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="17.4" spans="1:4">
+    <row r="20" ht="18.75" spans="1:4">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1681,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" ht="17.4" spans="1:11">
+    <row r="21" ht="18.75" spans="1:11">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1654,13 +1699,13 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" ht="17.4" spans="1:11">
+    <row r="22" ht="18.75" spans="1:13">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1680,8 +1725,14 @@
       <c r="K22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" ht="17.4" spans="1:10">
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" spans="1:10">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="17.4" spans="1:2">
+    <row r="24" ht="18.75" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1702,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="17.4" spans="1:11">
+    <row r="25" ht="18.75" spans="1:11">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1732,13 +1783,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="17.4" spans="1:11">
+    <row r="26" ht="18.75" spans="1:13">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -1761,8 +1812,14 @@
       <c r="K26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" ht="17.4" spans="1:11">
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" spans="1:11">
       <c r="A27" t="s">
         <v>27</v>
       </c>

--- a/打卡.xlsx
+++ b/打卡.xlsx
@@ -105,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -148,6 +148,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -155,8 +163,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,29 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,22 +247,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,35 +277,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,29 +291,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -307,12 +307,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,169 +475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,27 +501,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -551,25 +534,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -590,6 +560,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -606,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,133 +618,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,9 +1107,9 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1206,13 +1206,13 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:12">
+    <row r="3" ht="18.75" spans="1:14">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <f>SUM(C3:U3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -1238,14 +1238,17 @@
       <c r="L3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="18.75" spans="1:13">
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:14">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B27" si="0">SUM(C4:U4)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -1278,6 +1281,9 @@
         <v>1</v>
       </c>
       <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1383,13 +1389,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18.75" spans="1:13">
+    <row r="9" ht="18.75" spans="1:14">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1424,14 +1430,17 @@
       <c r="M9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" ht="18.75" spans="1:13">
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:14">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1466,14 +1475,17 @@
       <c r="M10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="18.75" spans="1:13">
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:14">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1508,14 +1520,17 @@
       <c r="M11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" ht="18.75" spans="1:13">
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" spans="1:14">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1550,14 +1565,17 @@
       <c r="M12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" ht="18.75" spans="1:13">
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:14">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1590,6 +1608,9 @@
         <v>1</v>
       </c>
       <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1613,15 +1634,18 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" ht="18.75" spans="1:4">
+    <row r="16" ht="18.75" spans="1:14">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6"/>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" ht="18.75" spans="1:4">
       <c r="A17" t="s">
@@ -1699,13 +1723,13 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" ht="18.75" spans="1:13">
+    <row r="22" ht="18.75" spans="1:14">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1729,6 +1753,9 @@
         <v>1</v>
       </c>
       <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1783,13 +1810,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="18.75" spans="1:13">
+    <row r="26" ht="18.75" spans="1:14">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -1818,14 +1845,17 @@
       <c r="M26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" ht="18.75" spans="1:11">
+      <c r="N26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" spans="1:14">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1846,6 +1876,9 @@
         <v>1</v>
       </c>
       <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5">
         <v>1</v>
       </c>
     </row>

--- a/打卡.xlsx
+++ b/打卡.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -148,6 +149,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -157,43 +210,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +232,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -215,15 +247,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,22 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -261,36 +286,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -307,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,13 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +565,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -575,21 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -606,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,137 +619,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +769,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1106,10 +1110,10 @@
   <sheetPr/>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomLeft" activeCell="R26" sqref="R26:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1206,13 +1210,13 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:14">
+    <row r="3" ht="18.75" spans="1:18">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <f>SUM(C3:U3)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -1241,14 +1245,26 @@
       <c r="N3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="18.75" spans="1:14">
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:18">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B27" si="0">SUM(C4:U4)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -1284,6 +1300,18 @@
         <v>1</v>
       </c>
       <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1301,13 +1329,13 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" ht="18.75" spans="1:11">
+    <row r="6" ht="18.75" spans="1:18">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1327,6 +1355,12 @@
       <c r="K6" s="5">
         <v>1</v>
       </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="18.75" spans="1:12">
       <c r="A7" t="s">
@@ -1359,13 +1393,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:12">
+    <row r="8" ht="18.75" spans="1:17">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1388,14 +1422,17 @@
       <c r="L8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" ht="18.75" spans="1:14">
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" spans="1:18">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1433,14 +1470,26 @@
       <c r="N9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" ht="18.75" spans="1:14">
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:18">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1478,14 +1527,26 @@
       <c r="N10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="18.75" spans="1:14">
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:18">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1523,14 +1584,26 @@
       <c r="N11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" ht="18.75" spans="1:14">
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" spans="1:18">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1568,14 +1641,26 @@
       <c r="N12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" ht="18.75" spans="1:14">
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:18">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1611,6 +1696,18 @@
         <v>1</v>
       </c>
       <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="R13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1647,15 +1744,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="18.75" spans="1:4">
+    <row r="17" ht="18.75" spans="1:16">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="6"/>
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" ht="18.75" spans="1:4">
       <c r="A18" t="s">
@@ -1705,13 +1805,13 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" ht="18.75" spans="1:11">
+    <row r="21" ht="18.75" spans="1:18">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21" s="6"/>
       <c r="H21" s="5">
@@ -1722,14 +1822,26 @@
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-    </row>
-    <row r="22" ht="18.75" spans="1:14">
+      <c r="O21" s="5">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>1</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" spans="1:18">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1756,6 +1868,18 @@
         <v>1</v>
       </c>
       <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1</v>
+      </c>
+      <c r="R22" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1810,13 +1934,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="18.75" spans="1:14">
+    <row r="26" ht="18.75" spans="1:18">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -1848,14 +1972,26 @@
       <c r="N26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" ht="18.75" spans="1:14">
+      <c r="O26" s="5">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" spans="1:18">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -1879,6 +2015,16 @@
         <v>1</v>
       </c>
       <c r="N27" s="5">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5">
+        <v>1</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="5">
+        <v>1</v>
+      </c>
+      <c r="R27" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1894,4 +2040,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/打卡.xlsx
+++ b/打卡.xlsx
@@ -107,9 +107,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -156,6 +156,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -179,7 +180,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +210,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -210,7 +258,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,29 +275,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,40 +286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,25 +308,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,25 +428,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,121 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +499,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,11 +537,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +567,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,41 +599,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,10 +1110,10 @@
   <sheetPr/>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R26" sqref="R26:R27"/>
+      <selection pane="bottomLeft" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1210,13 +1210,13 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:18">
+    <row r="3" ht="18.75" spans="1:20">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <f>SUM(C3:U3)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -1257,14 +1257,18 @@
       <c r="R3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="18.75" spans="1:18">
+      <c r="S3" s="8"/>
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:20">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" ref="B4:B27" si="0">SUM(C4:U4)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -1312,6 +1316,12 @@
         <v>1</v>
       </c>
       <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1</v>
+      </c>
+      <c r="T4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1329,13 +1339,13 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" ht="18.75" spans="1:18">
+    <row r="6" ht="18.75" spans="1:20">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1361,6 +1371,12 @@
       <c r="R6" s="5">
         <v>1</v>
       </c>
+      <c r="S6" s="5">
+        <v>1</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="18.75" spans="1:12">
       <c r="A7" t="s">
@@ -1393,13 +1409,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18.75" spans="1:17">
+    <row r="8" ht="18.75" spans="1:20">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1425,14 +1441,20 @@
       <c r="Q8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" ht="18.75" spans="1:18">
+      <c r="S8" s="5">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" spans="1:20">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -1482,14 +1504,20 @@
       <c r="R9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" ht="18.75" spans="1:18">
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:20">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -1539,14 +1567,20 @@
       <c r="R10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="18.75" spans="1:18">
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:20">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1596,14 +1630,20 @@
       <c r="R11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" ht="18.75" spans="1:18">
+      <c r="S11" s="5">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" spans="1:20">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -1653,14 +1693,20 @@
       <c r="R12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" ht="18.75" spans="1:18">
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:20">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -1708,6 +1754,12 @@
         <v>1</v>
       </c>
       <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1721,28 +1773,38 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" ht="18.75" spans="1:4">
+    <row r="15" ht="18.75" spans="1:20">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="6"/>
-    </row>
-    <row r="16" ht="18.75" spans="1:14">
+      <c r="S15" s="5">
+        <v>1</v>
+      </c>
+      <c r="T15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="1:20">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="6"/>
       <c r="N16" s="5">
         <v>1</v>
       </c>
+      <c r="S16" s="5">
+        <v>1</v>
+      </c>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" ht="18.75" spans="1:16">
       <c r="A17" t="s">
@@ -1805,13 +1867,13 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" ht="18.75" spans="1:18">
+    <row r="21" ht="18.75" spans="1:20">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" s="6"/>
       <c r="H21" s="5">
@@ -1834,14 +1896,20 @@
       <c r="R21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" ht="18.75" spans="1:18">
+      <c r="S21" s="5">
+        <v>1</v>
+      </c>
+      <c r="T21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" spans="1:20">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1882,20 +1950,32 @@
       <c r="R22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" ht="18.75" spans="1:10">
+      <c r="S22" s="5">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" spans="1:20">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" ht="18.75" spans="1:2">
+      <c r="S23" s="5">
+        <v>1</v>
+      </c>
+      <c r="T23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" spans="1:19">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1903,8 +1983,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" ht="18.75" spans="1:11">
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" ht="18.75" spans="1:19">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1933,14 +2014,15 @@
       <c r="K25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" ht="18.75" spans="1:18">
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" ht="18.75" spans="1:20">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -1984,14 +2066,20 @@
       <c r="R26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" ht="18.75" spans="1:18">
+      <c r="S26" s="5">
+        <v>1</v>
+      </c>
+      <c r="T26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" spans="1:20">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -2020,11 +2108,17 @@
       <c r="O27" s="5">
         <v>1</v>
       </c>
-      <c r="P27" s="8"/>
+      <c r="P27" s="7"/>
       <c r="Q27" s="5">
         <v>1</v>
       </c>
       <c r="R27" s="5">
+        <v>1</v>
+      </c>
+      <c r="S27" s="5">
+        <v>1</v>
+      </c>
+      <c r="T27" s="5">
         <v>1</v>
       </c>
     </row>
